--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment_Home_AddNew_Schedule.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/IBBillPayment_Home_AddNew_Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-16122020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -479,37 +479,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -818,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
